--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406A5161-47AD-4E85-AB2D-67ACCC2F70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A859E9-1CD4-4DB3-8EF2-0EEDA952CD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="(b)(1)" sheetId="2" r:id="rId1"/>
@@ -10762,8 +10762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A9C08C-5769-44CA-9721-54F6E9237D58}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12078,7 +12078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628FA0F-2616-4369-B586-D9F4CA859488}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A859E9-1CD4-4DB3-8EF2-0EEDA952CD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397275CE-0C95-4471-89ED-49153700A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="(b)(1)" sheetId="2" r:id="rId1"/>
-    <sheet name="(b)(2)" sheetId="3" r:id="rId2"/>
-    <sheet name="(e)(1)" sheetId="1" r:id="rId3"/>
-    <sheet name="(f)(5)" sheetId="4" r:id="rId4"/>
-    <sheet name="(g)(6)" sheetId="5" r:id="rId5"/>
+    <sheet name="(b)(1)" sheetId="1" r:id="rId1"/>
+    <sheet name="(b)(2)" sheetId="2" r:id="rId2"/>
+    <sheet name="(e)(1)" sheetId="3" r:id="rId3"/>
+    <sheet name="(f)(5)" sheetId="5" r:id="rId4"/>
+    <sheet name="(g)(6)" sheetId="4" r:id="rId5"/>
     <sheet name="(g)(9)" sheetId="6" r:id="rId6"/>
     <sheet name="(g)(10)" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -63,10 +63,10 @@
     <t>(b)(2) Cures Update Progress</t>
   </si>
   <si>
-    <t>(f)(5) Cures Update Progress</t>
+    <t>(g)(6) Cures Update Progress</t>
   </si>
   <si>
-    <t>(g)(6) Cures Update Progress</t>
+    <t>(f)(5) Cures Update Progress</t>
   </si>
   <si>
     <t>(g)(9) Cures Update Progress</t>
@@ -249,83 +249,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$3:$L$3</c:f>
+              <c:f>'(b)(1)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -333,7 +339,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-563F-400A-B486-9F2D7D1D312D}"/>
+              <c16:uniqueId val="{00000000-F465-4BEA-84D7-FFE38B8D6E80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -363,83 +369,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$4:$L$4</c:f>
+              <c:f>'(b)(1)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -447,7 +459,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-563F-400A-B486-9F2D7D1D312D}"/>
+              <c16:uniqueId val="{00000001-F465-4BEA-84D7-FFE38B8D6E80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,83 +491,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$2:$L$2</c:f>
+              <c:f>'(b)(1)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -563,7 +581,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-563F-400A-B486-9F2D7D1D312D}"/>
+              <c16:uniqueId val="{00000002-F465-4BEA-84D7-FFE38B8D6E80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -667,83 +685,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(1)'!$B$5:$L$5</c:f>
+              <c:f>'(b)(1)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -752,7 +776,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-563F-400A-B486-9F2D7D1D312D}"/>
+              <c16:uniqueId val="{00000003-F465-4BEA-84D7-FFE38B8D6E80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1136,83 +1160,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(2)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$3:$L$3</c:f>
+              <c:f>'(b)(2)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -1220,7 +1250,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3221-47AE-BA5F-6D4256538519}"/>
+              <c16:uniqueId val="{00000000-0411-45B0-80CE-B8EE8F52CDF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1250,83 +1280,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(2)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$4:$L$4</c:f>
+              <c:f>'(b)(2)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -1334,7 +1370,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3221-47AE-BA5F-6D4256538519}"/>
+              <c16:uniqueId val="{00000001-0411-45B0-80CE-B8EE8F52CDF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,83 +1402,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(2)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$2:$L$2</c:f>
+              <c:f>'(b)(2)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -1450,7 +1492,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3221-47AE-BA5F-6D4256538519}"/>
+              <c16:uniqueId val="{00000002-0411-45B0-80CE-B8EE8F52CDF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1554,83 +1596,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$1:$L$1</c:f>
+              <c:f>'(b)(2)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(2)'!$B$5:$L$5</c:f>
+              <c:f>'(b)(2)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -1639,7 +1687,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3221-47AE-BA5F-6D4256538519}"/>
+              <c16:uniqueId val="{00000003-0411-45B0-80CE-B8EE8F52CDF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2023,83 +2071,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(e)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$3:$L$3</c:f>
+              <c:f>'(e)(1)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -2107,7 +2161,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F465-4BEA-84D7-FFE38B8D6E80}"/>
+              <c16:uniqueId val="{00000000-B692-4DB0-BF81-3E5A4AB13AB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2137,83 +2191,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(e)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$4:$L$4</c:f>
+              <c:f>'(e)(1)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -2221,7 +2281,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F465-4BEA-84D7-FFE38B8D6E80}"/>
+              <c16:uniqueId val="{00000001-B692-4DB0-BF81-3E5A4AB13AB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2253,83 +2313,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(e)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$2:$L$2</c:f>
+              <c:f>'(e)(1)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -2337,7 +2403,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F465-4BEA-84D7-FFE38B8D6E80}"/>
+              <c16:uniqueId val="{00000002-B692-4DB0-BF81-3E5A4AB13AB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2441,83 +2507,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$1:$L$1</c:f>
+              <c:f>'(e)(1)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(e)(1)'!$B$5:$L$5</c:f>
+              <c:f>'(e)(1)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2526,7 +2598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F465-4BEA-84D7-FFE38B8D6E80}"/>
+              <c16:uniqueId val="{00000003-B692-4DB0-BF81-3E5A4AB13AB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2834,7 +2906,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>(e)(1) Cures Update Progress</a:t>
+              <a:t>(f)(5) Cures Update Progress</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2910,83 +2982,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$1:$L$1</c:f>
+              <c:f>'(f)(5)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$3:$L$3</c:f>
+              <c:f>'(f)(5)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -2994,7 +3072,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C085-4DC5-A3B5-081F6AD36F6E}"/>
+              <c16:uniqueId val="{00000000-B8A3-42AC-84A7-D99EB392B4AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3024,83 +3102,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$1:$L$1</c:f>
+              <c:f>'(f)(5)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$4:$L$4</c:f>
+              <c:f>'(f)(5)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -3108,7 +3192,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C085-4DC5-A3B5-081F6AD36F6E}"/>
+              <c16:uniqueId val="{00000001-B8A3-42AC-84A7-D99EB392B4AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3140,83 +3224,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$1:$L$1</c:f>
+              <c:f>'(f)(5)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$2:$L$2</c:f>
+              <c:f>'(f)(5)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -3224,7 +3314,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C085-4DC5-A3B5-081F6AD36F6E}"/>
+              <c16:uniqueId val="{00000002-B8A3-42AC-84A7-D99EB392B4AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3328,83 +3418,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$1:$L$1</c:f>
+              <c:f>'(f)(5)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(f)(5)'!$B$5:$L$5</c:f>
+              <c:f>'(f)(5)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -3413,7 +3509,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C085-4DC5-A3B5-081F6AD36F6E}"/>
+              <c16:uniqueId val="{00000003-B8A3-42AC-84A7-D99EB392B4AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3797,83 +3893,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(6)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$3:$L$3</c:f>
+              <c:f>'(g)(6)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -3881,7 +3983,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20C1-44D4-8846-5836065969E0}"/>
+              <c16:uniqueId val="{00000000-BEDB-4B67-BCA1-8F8A9B67EEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3911,83 +4013,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(6)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$4:$L$4</c:f>
+              <c:f>'(g)(6)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -3995,7 +4103,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20C1-44D4-8846-5836065969E0}"/>
+              <c16:uniqueId val="{00000001-BEDB-4B67-BCA1-8F8A9B67EEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4027,83 +4135,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(6)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$2:$L$2</c:f>
+              <c:f>'(g)(6)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -4111,7 +4225,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20C1-44D4-8846-5836065969E0}"/>
+              <c16:uniqueId val="{00000002-BEDB-4B67-BCA1-8F8A9B67EEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4215,83 +4329,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(6)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(6)'!$B$5:$L$5</c:f>
+              <c:f>'(g)(6)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -4300,7 +4420,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-20C1-44D4-8846-5836065969E0}"/>
+              <c16:uniqueId val="{00000003-BEDB-4B67-BCA1-8F8A9B67EEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4684,83 +4804,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(9)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$3:$L$3</c:f>
+              <c:f>'(g)(9)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -4768,7 +4894,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E954-40EC-8D79-B986FF673564}"/>
+              <c16:uniqueId val="{00000000-43DD-4D73-B613-6F53244BAB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4798,83 +4924,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(9)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$4:$L$4</c:f>
+              <c:f>'(g)(9)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -4882,7 +5014,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E954-40EC-8D79-B986FF673564}"/>
+              <c16:uniqueId val="{00000001-43DD-4D73-B613-6F53244BAB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4914,83 +5046,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(9)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$2:$L$2</c:f>
+              <c:f>'(g)(9)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -4998,7 +5136,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E954-40EC-8D79-B986FF673564}"/>
+              <c16:uniqueId val="{00000002-43DD-4D73-B613-6F53244BAB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5102,83 +5240,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(9)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(9)'!$B$5:$L$5</c:f>
+              <c:f>'(g)(9)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -5187,7 +5331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E954-40EC-8D79-B986FF673564}"/>
+              <c16:uniqueId val="{00000003-43DD-4D73-B613-6F53244BAB0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5571,83 +5715,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(10)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$3:$L$3</c:f>
+              <c:f>'(g)(10)'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
@@ -5655,7 +5805,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACD2-483B-92EE-A3D1ED500E91}"/>
+              <c16:uniqueId val="{00000000-A090-4E4D-9A97-EFF69AE399AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5685,83 +5835,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(10)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$4:$L$4</c:f>
+              <c:f>'(g)(10)'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -5769,7 +5925,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ACD2-483B-92EE-A3D1ED500E91}"/>
+              <c16:uniqueId val="{00000001-A090-4E4D-9A97-EFF69AE399AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5801,83 +5957,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(10)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$2:$L$2</c:f>
+              <c:f>'(g)(10)'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>506</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
@@ -5885,7 +6047,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ACD2-483B-92EE-A3D1ED500E91}"/>
+              <c16:uniqueId val="{00000002-A090-4E4D-9A97-EFF69AE399AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5989,83 +6151,89 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$1:$L$1</c:f>
+              <c:f>'(g)(10)'!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>44013</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44044</c:v>
+                  <c:v>44348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44075</c:v>
+                  <c:v>44378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105</c:v>
+                  <c:v>44409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44136</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44166</c:v>
+                  <c:v>44470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44197</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44228</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44256</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44287</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44317</c:v>
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(g)(10)'!$B$5:$L$5</c:f>
+              <c:f>'(g)(10)'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>8.2733812949640287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9928057553956831E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1128747795414462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13448275862068965</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.15371621621621623</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.19155844155844157</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.22535211267605634</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.25679758308157102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.29027576197387517</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32686980609418281</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.36375661375661378</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.37696335078534032</c:v>
                 </c:pt>
               </c:numCache>
@@ -6074,7 +6242,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ACD2-483B-92EE-A3D1ED500E91}"/>
+              <c16:uniqueId val="{00000003-A090-4E4D-9A97-EFF69AE399AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10172,7 +10340,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10182,7 +10350,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91882C5E-07AE-4E38-BB5A-E68CC5AD0DC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742EB505-55E6-44F3-81B3-778EF5D8CD96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10215,7 +10383,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10225,7 +10393,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D551744-7F4E-4A30-8428-195AB3241DBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1201B424-4A3A-461D-A7DC-4A90EE8655E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10258,7 +10426,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10268,7 +10436,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742EB505-55E6-44F3-81B3-778EF5D8CD96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3649DF3-CBEA-4DFA-90A4-49FEB3021B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10301,7 +10469,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10311,7 +10479,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C322F3-A442-4337-AB78-03C38637C394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BE4380-408F-47EB-A110-47C3D937E986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10344,7 +10512,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10354,7 +10522,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325914BE-3FD9-4C3A-A61E-AF6F3B7D813F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A42045-0003-455E-810D-F7741416A723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10387,7 +10555,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10397,7 +10565,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5E669E-D5FC-4DF4-8CFD-836324179350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D47B81-72AA-4841-BE38-58FA9D960D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10430,7 +10598,7 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
@@ -10440,7 +10608,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94A5965-4A44-4D3D-9CE4-C47B57657B5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C05C1E-848E-419E-86C1-46327059EE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10759,11 +10927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A9C08C-5769-44CA-9721-54F6E9237D58}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10771,203 +10939,219 @@
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -10979,215 +11163,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044D0F18-ED3F-48CD-A2E6-71B5C75F42CC}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3059C3-6567-437B-89D3-3175FCFC3B21}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -11199,215 +11397,229 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF141FC4-9BD8-4C03-8058-027B7B155079}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -11419,11 +11631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947FBD5E-AE24-4007-BEC6-414A17ACC2FC}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44752BA7-7F59-49E3-9C85-3AB788627234}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11431,203 +11643,219 @@
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -11639,213 +11867,229 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A5E5B-BBB9-4C3E-B470-AB7E6B80F9E1}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62691767-AC44-4E4C-A8E6-EC109DF4F1B7}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -11857,213 +12101,229 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418822A9-96C0-43F8-B9CF-1B34762EE06A}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DB07C7-EF4F-44D0-9D6D-662CD9594C99}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>
@@ -12075,213 +12335,229 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628FA0F-2616-4369-B586-D9F4CA859488}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F218294-113B-457B-9C2E-9B58E970D337}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>44013</v>
+        <v>44317</v>
       </c>
       <c r="C1" s="1">
-        <v>44044</v>
+        <v>44348</v>
       </c>
       <c r="D1" s="1">
-        <v>44075</v>
+        <v>44378</v>
       </c>
       <c r="E1" s="1">
-        <v>44105</v>
+        <v>44409</v>
       </c>
       <c r="F1" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="G1" s="1">
-        <v>44166</v>
+        <v>44470</v>
       </c>
       <c r="H1" s="1">
-        <v>44197</v>
+        <v>44501</v>
       </c>
       <c r="I1" s="1">
-        <v>44228</v>
+        <v>44531</v>
       </c>
       <c r="J1" s="1">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="K1" s="1">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="L1" s="1">
-        <v>44317</v>
+        <v>44621</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44652</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
         <v>506</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>503</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>502</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>492</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>489</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>486</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>481</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>101</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>129</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>157</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>(B3+B4)/(B2+B3+B4)</f>
+        <v>8.2733812949640287E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(C3+C4)/(C2+C3+C4)</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:L5" si="0">(C3+C4)/(C2+C3+C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:M5" si="0">(D3+D4)/(D2+D3+D4)</f>
         <v>0.1128747795414462</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.13448275862068965</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.15371621621621623</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.19155844155844157</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.22535211267605634</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.25679758308157102</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.29027576197387517</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.32686980609418281</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.36375661375661378</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0.37696335078534032</v>
       </c>

--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397275CE-0C95-4471-89ED-49153700A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1121C8-EA0C-48B1-9912-84309A8718A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="(b)(1)" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1129,7 +1139,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12515574171799596"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.84669247302970962"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2040,7 +2060,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2951,7 +2981,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -3862,7 +3902,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -4773,7 +4823,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -5684,7 +5744,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12494805972021503"/>
+          <c:y val="0.12075069311153765"/>
+          <c:w val="0.8469468697760274"/>
+          <c:h val="0.65825764101944073"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -10378,13 +10448,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1788795</xdr:colOff>
+      <xdr:colOff>1741169</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
@@ -10930,7 +11000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -12338,7 +12408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F218294-113B-457B-9C2E-9B58E970D337}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1121C8-EA0C-48B1-9912-84309A8718A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B9CB8-0579-40D1-A307-FA83311AD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="(b)(1)" sheetId="1" r:id="rId1"/>
@@ -174,15 +174,6 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
               <a:t>(b)(1) Cures Update Progress</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1097,15 +1088,6 @@
               <a:t>(b)(2) Cures Update Progress</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -2018,15 +2000,6 @@
               <a:t>(e)(1) Cures Update Progress</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -2939,15 +2912,6 @@
               <a:t>(f)(5) Cures Update Progress</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -3860,15 +3824,6 @@
               <a:t>(g)(6) Cures Update Progress</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -4781,15 +4736,6 @@
               <a:t>(g)(9) Cures Update Progress</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -5700,15 +5646,6 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
               <a:t>(g)(10) Cures Update Progress</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Synthetic Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11000,7 +10937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -12408,7 +12345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F218294-113B-457B-9C2E-9B58E970D337}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B9CB8-0579-40D1-A307-FA83311AD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25803A-4F81-44EC-86A9-961E5024BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="(b)(1)" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12494805972021503"/>
-          <c:y val="0.12075069311153765"/>
+          <c:y val="0.1164853913414374"/>
           <c:w val="0.8469468697760274"/>
           <c:h val="0.65825764101944073"/>
         </c:manualLayout>
@@ -799,45 +799,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1711,45 +1678,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2623,45 +2557,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3535,45 +3436,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -4447,45 +4315,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5359,45 +5194,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -6271,45 +6073,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="697937487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -10937,8 +10706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12345,7 +12114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F218294-113B-457B-9C2E-9B58E970D337}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
+++ b/chpl/chpl-resources/src/main/resources/CuresChartsOverTime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYoung\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25803A-4F81-44EC-86A9-961E5024BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340E1D7-46C6-4334-B3C0-66D394D91031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="(b)(1)" sheetId="1" r:id="rId1"/>
@@ -871,13 +871,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -1750,13 +1751,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -2629,13 +2631,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -3508,13 +3511,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -4387,13 +4391,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -5266,13 +5271,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -6145,13 +6151,14 @@
         <c:axId val="96027647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -10706,7 +10713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E501EB-B624-4B25-B3C2-6AD69F7E81CC}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
@@ -12114,7 +12121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F218294-113B-457B-9C2E-9B58E970D337}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
